--- a/microservices/entities_service/entity_app/management/commands/config/DatasetsDPE/4. Detalle Licencia y comisiones.xlsx
+++ b/microservices/entities_service/entity_app/management/commands/config/DatasetsDPE/4. Detalle Licencia y comisiones.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clien\Documents\SED\pnt_project\microservices\entities_service\entity_app\management\commands\config\DatasetsDPE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C8603-A055-4D05-AD01-EBC94B47EB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="18000" windowHeight="9270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Reporte entidad" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="1. Conjunto de datos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="2. Metadatos" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="3. Diccionario" sheetId="4" r:id="rId7"/>
+    <sheet name="Reporte entidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Conjunto de datos" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadatos" sheetId="3" r:id="rId3"/>
+    <sheet name="Diccionario" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -119,9 +128,6 @@
     <t>CC-BY-4.0</t>
   </si>
   <si>
-    <t>Institución</t>
-  </si>
-  <si>
     <t>Nombre de la Entidad</t>
   </si>
   <si>
@@ -156,75 +162,81 @@
   </si>
   <si>
     <t>Tipo de licencia de servicio o de comisión de servicio (Contempla todos los tipos de licencia sin remuneración, comisión de servicio con remuneración, y comisión de servicio sin remuneración establecidos en la normativa vigente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
@@ -234,7 +246,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -262,68 +274,80 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -332,163 +356,160 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -678,148 +699,153 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.75"/>
-    <col customWidth="1" min="2" max="2" width="53.13"/>
-    <col customWidth="1" min="3" max="3" width="51.75"/>
-    <col customWidth="1" min="4" max="4" width="45.38"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -827,275 +853,280 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="C4"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="2" width="35.63"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
-    <col customWidth="1" min="4" max="4" width="33.13"/>
-    <col customWidth="1" min="5" max="5" width="23.75"/>
-    <col customWidth="1" min="6" max="6" width="26.0"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21">
-        <v>45220.0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>45951.0</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="15">
+        <v>45220</v>
+      </c>
+      <c r="D2" s="15">
+        <v>45951</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.13"/>
-    <col customWidth="1" min="2" max="2" width="65.75"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.25"/>
-    <col customWidth="1" min="2" max="2" width="61.38"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="35" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="37" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="38" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="B5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="40" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="42" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="42" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="42" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>